--- a/biology/Histoire de la zoologie et de la botanique/Gilbert_Cours-Darne/Gilbert_Cours-Darne.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gilbert_Cours-Darne/Gilbert_Cours-Darne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilbert Cours-Darne (né à La Romieu en 1909 et mort en 2001) est un ingénieur agronome français, botaniste et explorateur, spécialiste des forêts de Madagascar. C'est le fondateur de l'arboretum à l'origine des Jardins de Coursiana à La Romieu, dans le sud ouest de la France, qui ont obtenu en 2005 le label « Jardin remarquable ».
 </t>
@@ -511,10 +523,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gilbert Cours a une formation d'ingénieur en agronomie tropicale. Il travaille à Madagascar de 1931 à 1961 où il découvre de nombreuses espèces en compagnie de Henri Jean Humbert avec lequel il publie en 1965 la « Carte de la végétation de Madagascar ». Inspecteur général de l'Office de la recherche scientifique et technique outre-mer, chargé de l'organisation de la recherche agronomique dans le monde tropical, il s'intéresse aussi à l'amélioration du manioc et du riz[1]. Grand voyageur, il est envoyé également en mission en Afrique, en Équateur, en Asie centrale. Il constitue ainsi à partir de 1937 un herbier de près de 6000 échantillons qui ira enrichir les collections du Muséum national d'histoire naturelle à Paris[2],[3].
-Spécialiste des forêts, Gilbert Cours-Darne entreprend de planter un arboretum dans sa propriété de La Romieu dans le département du Gers à partir de 1974[4]. Quand Véronique et Arnaud Delannoy reprennent la propriété en 1992, quelque 300 espèces différentes sont plantées sur une superficie de 4 ha[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gilbert Cours a une formation d'ingénieur en agronomie tropicale. Il travaille à Madagascar de 1931 à 1961 où il découvre de nombreuses espèces en compagnie de Henri Jean Humbert avec lequel il publie en 1965 la « Carte de la végétation de Madagascar ». Inspecteur général de l'Office de la recherche scientifique et technique outre-mer, chargé de l'organisation de la recherche agronomique dans le monde tropical, il s'intéresse aussi à l'amélioration du manioc et du riz. Grand voyageur, il est envoyé également en mission en Afrique, en Équateur, en Asie centrale. Il constitue ainsi à partir de 1937 un herbier de près de 6000 échantillons qui ira enrichir les collections du Muséum national d'histoire naturelle à Paris,.
+Spécialiste des forêts, Gilbert Cours-Darne entreprend de planter un arboretum dans sa propriété de La Romieu dans le département du Gers à partir de 1974. Quand Véronique et Arnaud Delannoy reprennent la propriété en 1992, quelque 300 espèces différentes sont plantées sur une superficie de 4 ha.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gilbert Cours-Darne, Le manioc à Madagascar, P. André, 1951, 199 p.
 Henri Humbert, Gilbert Cours Darne, Henri Besairie, François Blasco, Pierre Legris, J Riquier et Henri Gaussen, Notice de la carte Madagascar, coll. « Travaux de la section scientifique et technique de l'Institut français de Pondichéry » (no Hors série 6), 1965, iv, 162
@@ -575,10 +591,12 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1995, l'Académie d'agriculture de France remet à l'honneur la médaille Olivier de Serres et l'attribue à Gilbert Cours-Darne[1] pour son œuvre botanique et paysagère[4].
-Le genre Coursiana (Rubiaceae) et une quarantaine d'espèces dans différentes familles, parmi lesquelles Begonia coursii et Vanilla coursii, ou encore Impatiens coursiana et Diospyros coursiana, perpétuent son nom[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1995, l'Académie d'agriculture de France remet à l'honneur la médaille Olivier de Serres et l'attribue à Gilbert Cours-Darne pour son œuvre botanique et paysagère.
+Le genre Coursiana (Rubiaceae) et une quarantaine d'espèces dans différentes familles, parmi lesquelles Begonia coursii et Vanilla coursii, ou encore Impatiens coursiana et Diospyros coursiana, perpétuent son nom.
 </t>
         </is>
       </c>
